--- a/Output_analysis/Linear_regression_with_PCA_cluster_number_2.xlsx
+++ b/Output_analysis/Linear_regression_with_PCA_cluster_number_2.xlsx
@@ -579,7 +579,7 @@
         <v>0.2886595053549112</v>
       </c>
       <c r="H4" t="n">
-        <v>0.06719861886460232</v>
+        <v>0.06719861886460236</v>
       </c>
       <c r="I4" t="n">
         <v>0.01017706201769688</v>
@@ -690,7 +690,7 @@
         <v>0.2115093261280165</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0004386940255729559</v>
+        <v>0.0004386940255729558</v>
       </c>
       <c r="J7" t="n">
         <v>0.1993266694217983</v>
@@ -723,7 +723,7 @@
         <v>0.1819506943240905</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2611497402912929</v>
+        <v>0.2611497402912928</v>
       </c>
       <c r="I8" t="n">
         <v>0.002179619941012181</v>
@@ -786,13 +786,13 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>-0.0009876513955697234</v>
+        <v>-0.0009876513955697237</v>
       </c>
       <c r="F10" t="n">
         <v>2.201052072331144</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1753997108312617</v>
+        <v>-0.1753997108312618</v>
       </c>
       <c r="H10" t="n">
         <v>0.2790001615652284</v>
@@ -801,7 +801,7 @@
         <v>0.0008992853976929211</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1753997108312617</v>
+        <v>0.1753997108312618</v>
       </c>
     </row>
     <row r="11">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>-0.005251620871921622</v>
+        <v>-0.005251620871921623</v>
       </c>
       <c r="F11" t="n">
         <v>10.98943191692473</v>
@@ -831,7 +831,7 @@
         <v>-0.1689591378437124</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3105562425046242</v>
+        <v>0.3105562425046241</v>
       </c>
       <c r="I11" t="n">
         <v>0.005105888009418973</v>
@@ -894,7 +894,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>-0.007049241848732352</v>
+        <v>-0.007049241848732355</v>
       </c>
       <c r="F13" t="n">
         <v>18.50603009881895</v>
@@ -903,7 +903,7 @@
         <v>-0.1635648794357461</v>
       </c>
       <c r="H13" t="n">
-        <v>0.3068568249262029</v>
+        <v>0.3068568249262028</v>
       </c>
       <c r="I13" t="n">
         <v>0.006808187085920944</v>
@@ -930,10 +930,10 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.006588494809086106</v>
+        <v>0.006588494809086104</v>
       </c>
       <c r="F14" t="n">
-        <v>9.424897094479576</v>
+        <v>9.424897094479578</v>
       </c>
       <c r="G14" t="n">
         <v>0.1547808653980288</v>
@@ -966,10 +966,10 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>-0.06037142773269707</v>
+        <v>-0.06037142773269708</v>
       </c>
       <c r="F15" t="n">
-        <v>170.3816271134992</v>
+        <v>170.3816271134991</v>
       </c>
       <c r="G15" t="n">
         <v>-0.1439113200159467</v>
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.003399555587475415</v>
+        <v>0.003399555587475416</v>
       </c>
       <c r="F16" t="n">
         <v>17.61969193667483</v>
@@ -1011,7 +1011,7 @@
         <v>0.1418450967900066</v>
       </c>
       <c r="H16" t="n">
-        <v>0.3763461642825694</v>
+        <v>0.3763461642825691</v>
       </c>
       <c r="I16" t="n">
         <v>0.003798935807951861</v>
@@ -1041,7 +1041,7 @@
         <v>-0.002876331405651209</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3048111928403601</v>
+        <v>0.3048111928403599</v>
       </c>
       <c r="G17" t="n">
         <v>-0.1150003937655601</v>
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-0.001690155381145391</v>
+        <v>-0.001690155381145392</v>
       </c>
       <c r="F20" t="n">
         <v>72.24228941226656</v>
@@ -1155,10 +1155,10 @@
         <v>-0.1003709668594987</v>
       </c>
       <c r="H20" t="n">
-        <v>0.5661781022117849</v>
+        <v>0.5661781022117848</v>
       </c>
       <c r="I20" t="n">
-        <v>0.002916505822157629</v>
+        <v>0.002916505822157628</v>
       </c>
       <c r="J20" t="n">
         <v>0.1003709668594987</v>
@@ -1182,22 +1182,22 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.006271388470862053</v>
+        <v>0.006271388470862055</v>
       </c>
       <c r="F21" t="n">
         <v>29.18579085332883</v>
       </c>
       <c r="G21" t="n">
-        <v>0.08630568555155015</v>
+        <v>0.08630568555155017</v>
       </c>
       <c r="H21" t="n">
-        <v>0.5915862712191956</v>
+        <v>0.5915862712191955</v>
       </c>
       <c r="I21" t="n">
         <v>0.0115922698063559</v>
       </c>
       <c r="J21" t="n">
-        <v>0.08630568555155015</v>
+        <v>0.08630568555155017</v>
       </c>
     </row>
     <row r="22">
@@ -1326,22 +1326,22 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>-4.164630602640316e-05</v>
+        <v>-4.164630602640315e-05</v>
       </c>
       <c r="F25" t="n">
         <v>0.1475289533003062</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.07964838184578346</v>
+        <v>-0.07964838184578345</v>
       </c>
       <c r="H25" t="n">
-        <v>0.6205900422664066</v>
+        <v>0.6205900422664068</v>
       </c>
       <c r="I25" t="n">
         <v>8.346132685559931e-05</v>
       </c>
       <c r="J25" t="n">
-        <v>0.07964838184578346</v>
+        <v>0.07964838184578345</v>
       </c>
     </row>
     <row r="26">
@@ -1365,7 +1365,7 @@
         <v>-3.18413331914156e-05</v>
       </c>
       <c r="F26" t="n">
-        <v>0.05992214259500039</v>
+        <v>0.05992214259500038</v>
       </c>
       <c r="G26" t="n">
         <v>-0.07942162871509237</v>
@@ -1374,7 +1374,7 @@
         <v>0.6656793603682118</v>
       </c>
       <c r="I26" t="n">
-        <v>7.296553454040848e-05</v>
+        <v>7.296553454040847e-05</v>
       </c>
       <c r="J26" t="n">
         <v>0.07942162871509237</v>
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>-3.11191101734672e-05</v>
+        <v>-3.111911017346722e-05</v>
       </c>
       <c r="F28" t="n">
         <v>0.02198035781407022</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.06338336847516785</v>
+        <v>-0.06338336847516789</v>
       </c>
       <c r="H28" t="n">
-        <v>0.730371017754331</v>
+        <v>0.7303710177543308</v>
       </c>
       <c r="I28" t="n">
-        <v>8.945756886741945e-05</v>
+        <v>8.945756886741943e-05</v>
       </c>
       <c r="J28" t="n">
-        <v>0.06338336847516785</v>
+        <v>0.06338336847516789</v>
       </c>
     </row>
     <row r="29">
@@ -1542,13 +1542,13 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.0003053618971263261</v>
+        <v>0.000305361897126326</v>
       </c>
       <c r="F31" t="n">
         <v>1.195683385581491</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05963926838437376</v>
+        <v>0.05963926838437374</v>
       </c>
       <c r="H31" t="n">
         <v>0.722082539311949</v>
@@ -1557,7 +1557,7 @@
         <v>0.0008518390638842801</v>
       </c>
       <c r="J31" t="n">
-        <v>0.05963926838437376</v>
+        <v>0.05963926838437374</v>
       </c>
     </row>
     <row r="32">
@@ -1578,22 +1578,22 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>-0.0001185425370891967</v>
+        <v>-0.0001185425370891966</v>
       </c>
       <c r="F32" t="n">
-        <v>0.2992589771763441</v>
+        <v>0.2992589771763442</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.05754127572422556</v>
+        <v>-0.05754127572422551</v>
       </c>
       <c r="H32" t="n">
-        <v>0.7465146513078483</v>
+        <v>0.7465146513078487</v>
       </c>
       <c r="I32" t="n">
-        <v>0.0003635796568981004</v>
+        <v>0.0003635796568981005</v>
       </c>
       <c r="J32" t="n">
-        <v>0.05754127572422556</v>
+        <v>0.05754127572422551</v>
       </c>
     </row>
     <row r="33">
@@ -1650,22 +1650,22 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>-0.006124003702178062</v>
+        <v>-0.006124003702178064</v>
       </c>
       <c r="F34" t="n">
         <v>73.12607176734205</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.02943711234788743</v>
+        <v>-0.02943711234788744</v>
       </c>
       <c r="H34" t="n">
-        <v>0.8607349823447663</v>
+        <v>0.8607349823447662</v>
       </c>
       <c r="I34" t="n">
         <v>0.03465777992939591</v>
       </c>
       <c r="J34" t="n">
-        <v>0.02943711234788743</v>
+        <v>0.02943711234788744</v>
       </c>
     </row>
     <row r="35">
@@ -1836,7 +1836,7 @@
         <v>4.181514284164302</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.009769419891817132</v>
+        <v>-0.009769419891817134</v>
       </c>
       <c r="H39" t="n">
         <v>0.9522915709580448</v>
@@ -1845,7 +1845,7 @@
         <v>0.00191488134794159</v>
       </c>
       <c r="J39" t="n">
-        <v>0.009769419891817132</v>
+        <v>0.009769419891817134</v>
       </c>
     </row>
     <row r="40">
@@ -1866,13 +1866,13 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>-0.2369848429768275</v>
+        <v>-0.2369848429768273</v>
       </c>
       <c r="F40" t="n">
         <v>10229.00088328554</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.007185526076404026</v>
+        <v>-0.00718552607640402</v>
       </c>
       <c r="H40" t="n">
         <v>0.9663327491358951</v>
@@ -1881,7 +1881,7 @@
         <v>5.574639226658453</v>
       </c>
       <c r="J40" t="n">
-        <v>0.007185526076404026</v>
+        <v>0.00718552607640402</v>
       </c>
     </row>
     <row r="41">
